--- a/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
@@ -8,24 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116876E5-185E-45F2-9BB2-62BDEA553B94}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3660A-BD4C-431B-B740-AD6CE8396566}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="16" r:id="rId1"/>
-    <sheet name="ラインＮＯマスタ変更画面" sheetId="7" r:id="rId2"/>
-    <sheet name="ラインＮＯマスタ変更画面　画面処理" sheetId="8" r:id="rId3"/>
-    <sheet name="ラインＮＯマスタ変更画面 サーバー処理" sheetId="13" r:id="rId4"/>
-    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId5"/>
-    <sheet name="製品マスタ変更画面　画面処理" sheetId="10" r:id="rId6"/>
-    <sheet name="製品マスタ変更画面　サーバー処理" sheetId="14" r:id="rId7"/>
-    <sheet name="管理者マスタ変更画面" sheetId="11" r:id="rId8"/>
-    <sheet name="管理者マスタ変更画面　画面処理" sheetId="12" r:id="rId9"/>
-    <sheet name="管理者マスタ変更画面　サーバー処理" sheetId="15" r:id="rId10"/>
+    <sheet name="メッセージ一覧" sheetId="17" r:id="rId2"/>
+    <sheet name="ラインＮＯマスタ変更画面" sheetId="7" r:id="rId3"/>
+    <sheet name="ラインＮＯマスタ変更画面　画面処理" sheetId="8" r:id="rId4"/>
+    <sheet name="ラインＮＯマスタ変更画面 サーバー処理" sheetId="13" r:id="rId5"/>
+    <sheet name="製品マスタ変更画面" sheetId="9" r:id="rId6"/>
+    <sheet name="製品マスタ変更画面　画面処理" sheetId="10" r:id="rId7"/>
+    <sheet name="製品マスタ変更画面　サーバー処理" sheetId="14" r:id="rId8"/>
+    <sheet name="管理者マスタ変更画面" sheetId="11" r:id="rId9"/>
+    <sheet name="管理者マスタ変更画面　画面処理" sheetId="12" r:id="rId10"/>
+    <sheet name="管理者マスタ変更画面　サーバー処理" sheetId="15" r:id="rId11"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -2341,6 +2342,217 @@
       <t>モド</t>
     </rPh>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>対象シート</t>
+    <rPh sb="0" eb="2">
+      <t>タイショウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>メッセージ一覧シートを新たに追加した</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>アラ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯマスタ変更画面</t>
+  </si>
+  <si>
+    <t>ラインＮＯマスタの追加・変更・削除時に確認を促すメッセージ</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯマスタの追加・変更時に入力項目に入力が無い場合の警告メッセージ</t>
+    <rPh sb="9" eb="11">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品マスタ変更画面</t>
+  </si>
+  <si>
+    <t>製品マスタの追加・変更・削除時に確認を促すメッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>製品マスタの追加・変更時に入力項目に入力が無い場合の警告メッセージ</t>
+    <rPh sb="0" eb="2">
+      <t>セイヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタ変更画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタの追加・変更・削除時に確認を促すメッセージ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ウナガ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタの追加・変更時に入力項目に入力が無い場合の警告メッセージ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -5238,7 +5450,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3112"/>
+                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3118"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8144,7 +8356,7 @@
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:rPr>
-              <a:t>製品マスタを変更（</a:t>
+              <a:t>管理者マスタを変更（</a:t>
             </a:r>
             <a:r>
               <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -9577,7 +9789,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s6223"/>
+                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s6235"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10142,7 +10354,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6224"/>
+                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6236"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10521,7 +10733,7 @@
   <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -10568,10 +10780,16 @@
       <c r="A3" s="33">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+      <c r="B3" s="34">
+        <v>43705</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>181</v>
+      </c>
       <c r="D3" s="35"/>
-      <c r="E3" s="37"/>
+      <c r="E3" s="37" t="s">
+        <v>182</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
@@ -11090,6 +11308,150 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E58644-8616-4F9B-B78E-0E92FDEEF4E9}">
+  <dimension ref="B2:F42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E10" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E14" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="E18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="C31" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="C42" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEE66E8-80A8-434B-9312-9B576991BBCA}">
   <dimension ref="B2:F13"/>
   <sheetViews>
@@ -11162,10 +11524,453 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EBFBAC2-B69E-49C7-9BB4-FAB070099CA9}">
+  <dimension ref="A1:C72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="3.9140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" style="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.25" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="42">
+        <v>1</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="42">
+        <v>2</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="33">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="33">
+        <v>4</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="33">
+        <v>5</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33">
+        <v>6</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="33">
+        <v>7</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="37"/>
+    </row>
+    <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="38"/>
+      <c r="C9" s="37"/>
+    </row>
+    <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="38"/>
+      <c r="C10" s="37"/>
+    </row>
+    <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+    </row>
+    <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="33">
+        <v>11</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+    </row>
+    <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33">
+        <v>12</v>
+      </c>
+      <c r="B13" s="40"/>
+      <c r="C13" s="39"/>
+    </row>
+    <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="33">
+        <v>13</v>
+      </c>
+      <c r="B14" s="40"/>
+      <c r="C14" s="41"/>
+    </row>
+    <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33">
+        <v>14</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="39"/>
+    </row>
+    <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="33">
+        <v>15</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
+    </row>
+    <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="39"/>
+    </row>
+    <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="33"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
+    </row>
+    <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="39"/>
+    </row>
+    <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="33"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="41"/>
+    </row>
+    <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="33"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="41"/>
+    </row>
+    <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="33"/>
+      <c r="B22" s="40"/>
+      <c r="C22" s="41"/>
+    </row>
+    <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="33"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="41"/>
+    </row>
+    <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="33"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="39"/>
+    </row>
+    <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="33"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="39"/>
+    </row>
+    <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="33"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="39"/>
+    </row>
+    <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="33"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="33"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="39"/>
+    </row>
+    <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="33"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="39"/>
+    </row>
+    <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="33"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="39"/>
+    </row>
+    <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="33"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="39"/>
+    </row>
+    <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="33"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="39"/>
+    </row>
+    <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="33"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="39"/>
+    </row>
+    <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="33"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="39"/>
+    </row>
+    <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="33"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="39"/>
+    </row>
+    <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="33"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+    </row>
+    <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="33"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+    </row>
+    <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="33"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+    </row>
+    <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="33"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+    </row>
+    <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="33"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+    </row>
+    <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="33"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+    </row>
+    <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="33"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
+    </row>
+    <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="42"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="39"/>
+    </row>
+    <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="42"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="43"/>
+    </row>
+    <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="33"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+    </row>
+    <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="33"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="39"/>
+    </row>
+    <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="33"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="44"/>
+    </row>
+    <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="33"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+    </row>
+    <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="33"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="44"/>
+    </row>
+    <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="33"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="41"/>
+    </row>
+    <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="33"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="41"/>
+    </row>
+    <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="33"/>
+      <c r="B52" s="40"/>
+      <c r="C52" s="41"/>
+    </row>
+    <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="33"/>
+      <c r="B53" s="40"/>
+      <c r="C53" s="39"/>
+    </row>
+    <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="33"/>
+      <c r="B54" s="40"/>
+      <c r="C54" s="41"/>
+    </row>
+    <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="33"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="41"/>
+    </row>
+    <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="33"/>
+      <c r="B56" s="40"/>
+      <c r="C56" s="41"/>
+    </row>
+    <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="33"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="41"/>
+    </row>
+    <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="33"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="41"/>
+    </row>
+    <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="33"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="41"/>
+    </row>
+    <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="33"/>
+      <c r="B60" s="40"/>
+      <c r="C60" s="41"/>
+    </row>
+    <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="33"/>
+      <c r="B61" s="40"/>
+      <c r="C61" s="41"/>
+    </row>
+    <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="33"/>
+      <c r="B62" s="40"/>
+      <c r="C62" s="41"/>
+    </row>
+    <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="33"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="41"/>
+    </row>
+    <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="33"/>
+      <c r="B64" s="40"/>
+      <c r="C64" s="41"/>
+    </row>
+    <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="33"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="41"/>
+    </row>
+    <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="33"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="41"/>
+    </row>
+    <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="33"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="41"/>
+    </row>
+    <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="33"/>
+      <c r="B68" s="40"/>
+      <c r="C68" s="41"/>
+    </row>
+    <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="33"/>
+      <c r="B69" s="40"/>
+      <c r="C69" s="41"/>
+    </row>
+    <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="33"/>
+      <c r="B70" s="40"/>
+      <c r="C70" s="41"/>
+    </row>
+    <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="33"/>
+      <c r="B71" s="40"/>
+      <c r="C71" s="41"/>
+    </row>
+    <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="33"/>
+      <c r="B72" s="40"/>
+      <c r="C72" s="41"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6654933-36B7-4F8C-9E09-5D9C2AFB682E}">
   <dimension ref="C15:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
@@ -11725,7 +12530,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBC032D-9FCA-461C-98DB-A8DC57BEDE1E}">
   <dimension ref="B2:Q53"/>
   <sheetViews>
@@ -12014,7 +12819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59135CC1-81B5-4286-BA16-34554669A606}">
   <dimension ref="B2:E22"/>
   <sheetViews>
@@ -12121,7 +12926,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D122B94B-B936-49B9-8AC7-07E6D81F6FFC}">
   <dimension ref="C14:O44"/>
   <sheetViews>
@@ -12501,7 +13306,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1680F7F-9CD9-4F15-8F66-15E5824D82C3}">
   <dimension ref="B2:F40"/>
   <sheetViews>
@@ -12678,7 +13483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C4CB8EC-EB3B-495C-93F7-CFCBDFFFD2FF}">
   <dimension ref="B2:E30"/>
   <sheetViews>
@@ -12810,12 +13615,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D5253-0275-47DD-89E6-B69C361856DE}">
   <dimension ref="C15:L36"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -13005,148 +13810,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E58644-8616-4F9B-B78E-0E92FDEEF4E9}">
-  <dimension ref="B2:F42"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E14" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F15" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="E18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F19" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="F20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D25" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C31" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>129</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
-</worksheet>
 </file>
--- a/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00B3660A-BD4C-431B-B740-AD6CE8396566}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA73AE-588E-4BD2-AE3E-34677E728400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="193">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -1284,9 +1284,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フリガナ</t>
-  </si>
-  <si>
     <t>所属部</t>
     <rPh sb="0" eb="2">
       <t>ショゾク</t>
@@ -1321,9 +1318,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>フタムラ　ケント</t>
-  </si>
-  <si>
     <t>業務部</t>
     <rPh sb="0" eb="2">
       <t>ギョウム</t>
@@ -1334,9 +1328,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>管理者</t>
-  </si>
-  <si>
     <t>本田　政雄（選択中）</t>
     <rPh sb="0" eb="2">
       <t>ホンダ</t>
@@ -1350,9 +1341,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ホンダ　マサオ</t>
-  </si>
-  <si>
     <t>山田　正雄</t>
     <rPh sb="0" eb="2">
       <t>ヤマダ</t>
@@ -1363,9 +1351,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ヤマダ　マサオ</t>
-  </si>
-  <si>
     <t>工務部</t>
     <rPh sb="0" eb="2">
       <t>コウム</t>
@@ -1396,13 +1381,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>テーブル参照</t>
-    <rPh sb="4" eb="6">
-      <t>サンショウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>管理者</t>
     <rPh sb="0" eb="3">
       <t>カンリシャ</t>
@@ -2551,6 +2529,94 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>各画面</t>
+    <rPh sb="0" eb="3">
+      <t>カクガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面レイアウト</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>画面の背景を薄青になるようにレイアウトを変更した</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイケイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウス</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アオ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタ変更画面</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>パスワード</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタ追加時の項目</t>
+    <rPh sb="3" eb="5">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタ変更画面にて追加の際、パスワードを入力して追加できるようにした</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>サイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2958,9 +3024,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3028,6 +3091,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5450,7 +5516,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3118"/>
+                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3131"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8045,13 +8111,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>556604</xdr:colOff>
+      <xdr:colOff>556605</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>156789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>752593</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>900547</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
@@ -8068,8 +8134,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1217004" y="2137989"/>
-          <a:ext cx="7695339" cy="2025797"/>
+          <a:off x="1214696" y="2096425"/>
+          <a:ext cx="5504760" cy="1980770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8111,7 +8177,7 @@
       <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>23090</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
@@ -8168,13 +8234,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>495624</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>149583</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>553132</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>54330</xdr:rowOff>
@@ -8231,13 +8297,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>14431</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>38544</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>1046786</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>27961</xdr:rowOff>
@@ -8255,8 +8321,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11471645" y="9690544"/>
-          <a:ext cx="4325284" cy="1948846"/>
+          <a:off x="10244281" y="9792144"/>
+          <a:ext cx="4328005" cy="1970617"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -8595,7 +8661,7 @@
       <xdr:rowOff>82262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>968374</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>58450</xdr:rowOff>
@@ -8662,13 +8728,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>680605</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>150091</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>496456</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>57728</xdr:rowOff>
@@ -8735,13 +8801,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>1009520</xdr:colOff>
       <xdr:row>50</xdr:row>
       <xdr:rowOff>88829</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>315967</xdr:colOff>
       <xdr:row>58</xdr:row>
       <xdr:rowOff>146556</xdr:rowOff>
@@ -8789,12 +8855,12 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>39831</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>59</xdr:row>
       <xdr:rowOff>156071</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>702731</xdr:colOff>
       <xdr:row>71</xdr:row>
       <xdr:rowOff>145488</xdr:rowOff>
@@ -8812,8 +8878,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3668402" y="9808071"/>
-          <a:ext cx="5198615" cy="1948846"/>
+          <a:off x="3625850" y="9909671"/>
+          <a:ext cx="4011081" cy="1970617"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -8999,13 +9065,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>139959</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>68566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>707103</xdr:colOff>
       <xdr:row>61</xdr:row>
       <xdr:rowOff>11664</xdr:rowOff>
@@ -9241,14 +9307,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>270322</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>258777</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>73032</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>618981</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>607436</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>148525</xdr:rowOff>
     </xdr:to>
@@ -9265,8 +9331,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="8430072" y="3705232"/>
-          <a:ext cx="348659" cy="240593"/>
+          <a:off x="6077686" y="3629032"/>
+          <a:ext cx="348659" cy="237129"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -9301,14 +9367,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1097530</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>762712</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>15678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>744753</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>409935</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
@@ -9325,8 +9391,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9257280" y="1501578"/>
-          <a:ext cx="745773" cy="2634993"/>
+          <a:off x="7678439" y="1470405"/>
+          <a:ext cx="744041" cy="2579575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9372,14 +9438,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>273771</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>262226</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>100002</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>622430</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>610885</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>10865</xdr:rowOff>
     </xdr:to>
@@ -9396,8 +9462,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8433521" y="2246302"/>
-          <a:ext cx="348659" cy="241063"/>
+          <a:off x="6081135" y="2201275"/>
+          <a:ext cx="348659" cy="234135"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
           <a:avLst/>
@@ -9432,16 +9498,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>368455</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>54881</xdr:rowOff>
+      <xdr:rowOff>54882</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>533086</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>141113</xdr:rowOff>
+      <xdr:rowOff>141114</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9456,8 +9522,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="8237205" y="2822381"/>
-          <a:ext cx="746632" cy="164631"/>
+          <a:off x="5903291" y="2763500"/>
+          <a:ext cx="732778" cy="164631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9492,14 +9558,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>282223</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>998041</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>54876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1003457</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>622457</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -9516,8 +9582,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8441973" y="1540776"/>
-          <a:ext cx="721234" cy="2421624"/>
+          <a:off x="6816950" y="1509603"/>
+          <a:ext cx="721234" cy="2369670"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
           <a:avLst>
@@ -9761,71 +9827,6 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>3</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>31</xdr:row>
-          <xdr:rowOff>72572</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>28</xdr:col>
-          <xdr:colOff>19793</xdr:colOff>
-          <xdr:row>33</xdr:row>
-          <xdr:rowOff>115455</xdr:rowOff>
-        </xdr:to>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="2" name="図 1">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{453619D3-9DED-474C-97F4-2AB0136CFAC8}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-              <a:extLst>
-                <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$C$33:$H$35" spid="_x0000_s6235"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-            <a:srcRect/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="816429" y="7102929"/>
-              <a:ext cx="6823364" cy="496455"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-            <a:extLst>
-              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-                <a14:hiddenFill>
-                  <a:solidFill>
-                    <a:srgbClr val="FFFFFF"/>
-                  </a:solidFill>
-                </a14:hiddenFill>
-              </a:ext>
-            </a:extLst>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -9944,8 +9945,8 @@
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>222250</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>108858</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
@@ -9962,8 +9963,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1905001" y="7663542"/>
-          <a:ext cx="1047749" cy="635908"/>
+          <a:off x="1899558" y="7603671"/>
+          <a:ext cx="1202871" cy="630465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10016,8 +10017,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>234951</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>145143</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>113392</xdr:rowOff>
     </xdr:from>
@@ -10040,8 +10041,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2965451" y="7657192"/>
-          <a:ext cx="1320799" cy="635908"/>
+          <a:off x="3138714" y="7597321"/>
+          <a:ext cx="1133929" cy="630465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10075,12 +10076,20 @@
         <a:p>
           <a:pPr algn="ctr"/>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>10</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>全角カタカナのみ</a:t>
+            <a:t>文字まで</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10095,13 +10104,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>172357</xdr:colOff>
+      <xdr:colOff>217714</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>119742</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:colOff>140607</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
@@ -10118,8 +10127,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4268107" y="7663542"/>
-          <a:ext cx="1015093" cy="635908"/>
+          <a:off x="4299857" y="7603671"/>
+          <a:ext cx="1011464" cy="630465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10173,15 +10182,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>88901</xdr:colOff>
+      <xdr:colOff>143330</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>126092</xdr:rowOff>
+      <xdr:rowOff>89807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
+      <xdr:colOff>143329</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>39915</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -10196,8 +10205,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5276851" y="7669892"/>
-          <a:ext cx="1092199" cy="1321708"/>
+          <a:off x="5314044" y="7573736"/>
+          <a:ext cx="1088571" cy="1310822"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10237,84 +10246,6 @@
               </a:solidFill>
             </a:rPr>
             <a:t>権限テーブルにあるコードのみ</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="tx1"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88901</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>119742</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="正方形/長方形 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0BFFE8-7D3F-4DFA-AA43-62BD2E4F6CFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6369051" y="7663542"/>
-          <a:ext cx="1092199" cy="1328058"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>権限レベルコードをもとにテーブルから取得する</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
             <a:solidFill>
@@ -10354,13 +10285,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6236"/>
+                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6263"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
             <a:srcRect/>
             <a:stretch>
               <a:fillRect/>
@@ -10391,6 +10322,67 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FCA9F-2A20-41BB-AAC8-0BB8F3F7AB33}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="819150" y="7315200"/>
+          <a:ext cx="5619750" cy="336550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10732,573 +10724,589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDF4AE-EC30-46E5-9D4F-2D435C180172}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17" style="46" customWidth="1"/>
-    <col min="3" max="3" width="32.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="120.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.25" style="32"/>
+    <col min="1" max="1" width="3.9140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="45" customWidth="1"/>
+    <col min="3" max="3" width="32.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="120.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.25" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>134</v>
+      <c r="A1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="33">
         <v>43700</v>
       </c>
-      <c r="C2" s="35"/>
-      <c r="D2" s="35"/>
-      <c r="E2" s="36" t="s">
-        <v>135</v>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="35" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="33">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>43705</v>
       </c>
-      <c r="C3" s="35" t="s">
-        <v>181</v>
-      </c>
-      <c r="D3" s="35"/>
-      <c r="E3" s="37" t="s">
-        <v>182</v>
+      <c r="C3" s="34" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="34"/>
+      <c r="E3" s="36" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="32">
         <v>3</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="39"/>
+      <c r="B4" s="33">
+        <v>43726</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33">
+      <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="34"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="39"/>
+      <c r="B5" s="33">
+        <v>43722</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="36"/>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="36"/>
     </row>
     <row r="10" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="36"/>
     </row>
     <row r="11" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
     </row>
     <row r="13" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="38"/>
     </row>
     <row r="14" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="40"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="41"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
     </row>
     <row r="15" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="38"/>
     </row>
     <row r="16" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="41"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
     </row>
     <row r="17" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="39"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="38"/>
     </row>
     <row r="18" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
     </row>
     <row r="19" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="39"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="41"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
     </row>
     <row r="21" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="40"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="41"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
     </row>
     <row r="22" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="40"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="41"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
     </row>
     <row r="23" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="41"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
     </row>
     <row r="24" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="40"/>
-      <c r="D24" s="40"/>
-      <c r="E24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="38"/>
     </row>
     <row r="25" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="38"/>
     </row>
     <row r="26" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="39"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="38"/>
     </row>
     <row r="27" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="38"/>
     </row>
     <row r="28" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="39"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="38"/>
     </row>
     <row r="29" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="39"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="38"/>
     </row>
     <row r="30" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="39"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="38"/>
     </row>
     <row r="31" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="39"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="39"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="38"/>
     </row>
     <row r="32" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="39"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="38"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="39"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="38"/>
     </row>
     <row r="35" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="39"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="39"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="33"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="39"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="38"/>
     </row>
     <row r="37" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="33"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="39"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="38"/>
     </row>
     <row r="38" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="33"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="39"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="38"/>
     </row>
     <row r="39" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="33"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="39"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="39"/>
+      <c r="E39" s="38"/>
     </row>
     <row r="40" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="33"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="39"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="38"/>
     </row>
     <row r="41" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="39"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="38"/>
     </row>
     <row r="42" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="33"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="39"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="38"/>
     </row>
     <row r="43" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="40"/>
-      <c r="D43" s="40"/>
-      <c r="E43" s="39"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="38"/>
     </row>
     <row r="44" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="42"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="40"/>
-      <c r="D44" s="40"/>
-      <c r="E44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="33"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="40"/>
-      <c r="D45" s="40"/>
-      <c r="E45" s="39"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="38"/>
     </row>
     <row r="46" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="33"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="39"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="38"/>
     </row>
     <row r="47" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="33"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="40"/>
-      <c r="D47" s="40"/>
-      <c r="E47" s="44"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="39"/>
+      <c r="D47" s="39"/>
+      <c r="E47" s="43"/>
     </row>
     <row r="48" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="33"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="39"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="38"/>
     </row>
     <row r="49" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="33"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="44"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="43"/>
     </row>
     <row r="50" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="33"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="41"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="40"/>
     </row>
     <row r="51" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="33"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="40"/>
-      <c r="D51" s="40"/>
-      <c r="E51" s="41"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
     </row>
     <row r="52" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="33"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="40"/>
-      <c r="D52" s="40"/>
-      <c r="E52" s="41"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="39"/>
+      <c r="D52" s="39"/>
+      <c r="E52" s="40"/>
     </row>
     <row r="53" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="33"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="40"/>
-      <c r="D53" s="40"/>
-      <c r="E53" s="39"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="39"/>
+      <c r="D53" s="39"/>
+      <c r="E53" s="38"/>
     </row>
     <row r="54" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="33"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="40"/>
-      <c r="D54" s="40"/>
-      <c r="E54" s="41"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="39"/>
+      <c r="D54" s="39"/>
+      <c r="E54" s="40"/>
     </row>
     <row r="55" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="33"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="41"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="40"/>
     </row>
     <row r="56" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="33"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="40"/>
-      <c r="D56" s="40"/>
-      <c r="E56" s="41"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="39"/>
+      <c r="D56" s="39"/>
+      <c r="E56" s="40"/>
     </row>
     <row r="57" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="33"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="40"/>
-      <c r="D57" s="40"/>
-      <c r="E57" s="41"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="39"/>
+      <c r="D57" s="39"/>
+      <c r="E57" s="40"/>
     </row>
     <row r="58" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="33"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="40"/>
-      <c r="D58" s="40"/>
-      <c r="E58" s="41"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="39"/>
+      <c r="D58" s="39"/>
+      <c r="E58" s="40"/>
     </row>
     <row r="59" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="33"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="40"/>
-      <c r="D59" s="40"/>
-      <c r="E59" s="41"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="39"/>
+      <c r="D59" s="39"/>
+      <c r="E59" s="40"/>
     </row>
     <row r="60" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="33"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="40"/>
-      <c r="D60" s="40"/>
-      <c r="E60" s="41"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="39"/>
+      <c r="D60" s="39"/>
+      <c r="E60" s="40"/>
     </row>
     <row r="61" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="33"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="40"/>
-      <c r="D61" s="40"/>
-      <c r="E61" s="41"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="40"/>
     </row>
     <row r="62" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="33"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="40"/>
-      <c r="D62" s="40"/>
-      <c r="E62" s="41"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="40"/>
     </row>
     <row r="63" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="33"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="40"/>
-      <c r="D63" s="40"/>
-      <c r="E63" s="41"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="39"/>
+      <c r="D63" s="39"/>
+      <c r="E63" s="40"/>
     </row>
     <row r="64" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="33"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="40"/>
-      <c r="D64" s="40"/>
-      <c r="E64" s="41"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="40"/>
     </row>
     <row r="65" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="33"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="40"/>
-      <c r="D65" s="40"/>
-      <c r="E65" s="41"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="40"/>
     </row>
     <row r="66" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="33"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="40"/>
-      <c r="D66" s="40"/>
-      <c r="E66" s="41"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="40"/>
     </row>
     <row r="67" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="33"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="40"/>
-      <c r="D67" s="40"/>
-      <c r="E67" s="41"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="39"/>
+      <c r="D67" s="39"/>
+      <c r="E67" s="40"/>
     </row>
     <row r="68" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="33"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="40"/>
-      <c r="D68" s="40"/>
-      <c r="E68" s="41"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="39"/>
+      <c r="D68" s="39"/>
+      <c r="E68" s="40"/>
     </row>
     <row r="69" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="33"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="40"/>
-      <c r="D69" s="40"/>
-      <c r="E69" s="41"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
     </row>
     <row r="70" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="33"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="40"/>
-      <c r="D70" s="40"/>
-      <c r="E70" s="41"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="39"/>
+      <c r="D70" s="39"/>
+      <c r="E70" s="40"/>
     </row>
     <row r="71" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="33"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="40"/>
-      <c r="D71" s="40"/>
-      <c r="E71" s="41"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="39"/>
+      <c r="D71" s="39"/>
+      <c r="E71" s="40"/>
     </row>
     <row r="72" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="33"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="40"/>
-      <c r="D72" s="40"/>
-      <c r="E72" s="41"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="39"/>
+      <c r="D72" s="39"/>
+      <c r="E72" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -11311,15 +11319,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E58644-8616-4F9B-B78E-0E92FDEEF4E9}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11344,17 +11352,17 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11364,17 +11372,17 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11384,17 +11392,17 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11404,27 +11412,27 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11434,12 +11442,12 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -11463,7 +11471,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11478,12 +11486,12 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11493,12 +11501,12 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11508,12 +11516,12 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -11533,431 +11541,431 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.9140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.75" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="120.6640625" style="32" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.25" style="32"/>
+    <col min="1" max="1" width="3.9140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.75" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="120.6640625" style="31" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.25" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="C1" s="31" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="42">
-        <v>1</v>
-      </c>
-      <c r="B2" s="38" t="s">
+      <c r="C4" s="36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="42">
-        <v>2</v>
-      </c>
-      <c r="B3" s="38" t="s">
+    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="32">
+        <v>6</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C7" s="36" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
-        <v>3</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33">
-        <v>4</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
-        <v>5</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="33">
-        <v>6</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>189</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>191</v>
-      </c>
-    </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33">
+      <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="38"/>
-      <c r="C9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="36"/>
     </row>
     <row r="10" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="32">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="36"/>
     </row>
     <row r="11" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33">
+      <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="38"/>
-      <c r="C11" s="39"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="38"/>
     </row>
     <row r="12" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33">
+      <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="38"/>
     </row>
     <row r="13" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33">
+      <c r="A13" s="32">
         <v>12</v>
       </c>
-      <c r="B13" s="40"/>
-      <c r="C13" s="39"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="38"/>
     </row>
     <row r="14" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33">
+      <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="40"/>
     </row>
     <row r="15" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33">
+      <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="40"/>
-      <c r="C15" s="39"/>
+      <c r="B15" s="39"/>
+      <c r="C15" s="38"/>
     </row>
     <row r="16" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33">
+      <c r="A16" s="32">
         <v>15</v>
       </c>
-      <c r="B16" s="40"/>
-      <c r="C16" s="41"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="40"/>
     </row>
     <row r="17" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33"/>
-      <c r="B17" s="40"/>
-      <c r="C17" s="39"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="39"/>
+      <c r="C17" s="38"/>
     </row>
     <row r="18" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="41"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="39"/>
+      <c r="C18" s="40"/>
     </row>
     <row r="19" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="39"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="39"/>
+      <c r="C19" s="38"/>
     </row>
     <row r="20" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="41"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="40"/>
     </row>
     <row r="21" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="41"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="39"/>
+      <c r="C21" s="40"/>
     </row>
     <row r="22" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="40"/>
-      <c r="C22" s="41"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="39"/>
+      <c r="C22" s="40"/>
     </row>
     <row r="23" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="41"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="39"/>
+      <c r="C23" s="40"/>
     </row>
     <row r="24" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="39"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="39"/>
+      <c r="C24" s="38"/>
     </row>
     <row r="25" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="39"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="38"/>
     </row>
     <row r="26" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="39"/>
+      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="38"/>
     </row>
     <row r="28" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="38"/>
     </row>
     <row r="29" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="39"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="38"/>
     </row>
     <row r="30" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="39"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="38"/>
     </row>
     <row r="31" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="39"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="39"/>
+      <c r="C31" s="38"/>
     </row>
     <row r="32" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="39"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="38"/>
     </row>
     <row r="33" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="39"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="39"/>
+      <c r="C33" s="38"/>
     </row>
     <row r="34" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="38"/>
     </row>
     <row r="35" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="39"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="38"/>
     </row>
     <row r="36" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="33"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="39"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="38"/>
     </row>
     <row r="37" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="33"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="39"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="38"/>
     </row>
     <row r="38" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="33"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="39"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="38"/>
     </row>
     <row r="39" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="33"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="39"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="39"/>
+      <c r="C39" s="38"/>
     </row>
     <row r="40" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="33"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="39"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="38"/>
     </row>
     <row r="41" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="33"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="39"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="38"/>
     </row>
     <row r="42" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="33"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="39"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="38"/>
     </row>
     <row r="43" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="42"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="38"/>
     </row>
     <row r="44" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="42"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="41"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="42"/>
     </row>
     <row r="45" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="33"/>
-      <c r="B45" s="40"/>
-      <c r="C45" s="39"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="39"/>
+      <c r="C45" s="38"/>
     </row>
     <row r="46" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="33"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="39"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="38"/>
     </row>
     <row r="47" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A47" s="33"/>
-      <c r="B47" s="40"/>
-      <c r="C47" s="44"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="39"/>
+      <c r="C47" s="43"/>
     </row>
     <row r="48" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A48" s="33"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="38"/>
     </row>
     <row r="49" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A49" s="33"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="44"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="43"/>
     </row>
     <row r="50" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A50" s="33"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="41"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="40"/>
     </row>
     <row r="51" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A51" s="33"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="41"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="39"/>
+      <c r="C51" s="40"/>
     </row>
     <row r="52" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="33"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="41"/>
+      <c r="A52" s="32"/>
+      <c r="B52" s="39"/>
+      <c r="C52" s="40"/>
     </row>
     <row r="53" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="33"/>
-      <c r="B53" s="40"/>
-      <c r="C53" s="39"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="39"/>
+      <c r="C53" s="38"/>
     </row>
     <row r="54" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="33"/>
-      <c r="B54" s="40"/>
-      <c r="C54" s="41"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="39"/>
+      <c r="C54" s="40"/>
     </row>
     <row r="55" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A55" s="33"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="41"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="40"/>
     </row>
     <row r="56" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A56" s="33"/>
-      <c r="B56" s="40"/>
-      <c r="C56" s="41"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="39"/>
+      <c r="C56" s="40"/>
     </row>
     <row r="57" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A57" s="33"/>
-      <c r="B57" s="40"/>
-      <c r="C57" s="41"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="39"/>
+      <c r="C57" s="40"/>
     </row>
     <row r="58" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A58" s="33"/>
-      <c r="B58" s="40"/>
-      <c r="C58" s="41"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="39"/>
+      <c r="C58" s="40"/>
     </row>
     <row r="59" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A59" s="33"/>
-      <c r="B59" s="40"/>
-      <c r="C59" s="41"/>
+      <c r="A59" s="32"/>
+      <c r="B59" s="39"/>
+      <c r="C59" s="40"/>
     </row>
     <row r="60" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A60" s="33"/>
-      <c r="B60" s="40"/>
-      <c r="C60" s="41"/>
+      <c r="A60" s="32"/>
+      <c r="B60" s="39"/>
+      <c r="C60" s="40"/>
     </row>
     <row r="61" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A61" s="33"/>
-      <c r="B61" s="40"/>
-      <c r="C61" s="41"/>
+      <c r="A61" s="32"/>
+      <c r="B61" s="39"/>
+      <c r="C61" s="40"/>
     </row>
     <row r="62" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A62" s="33"/>
-      <c r="B62" s="40"/>
-      <c r="C62" s="41"/>
+      <c r="A62" s="32"/>
+      <c r="B62" s="39"/>
+      <c r="C62" s="40"/>
     </row>
     <row r="63" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="33"/>
-      <c r="B63" s="40"/>
-      <c r="C63" s="41"/>
+      <c r="A63" s="32"/>
+      <c r="B63" s="39"/>
+      <c r="C63" s="40"/>
     </row>
     <row r="64" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="33"/>
-      <c r="B64" s="40"/>
-      <c r="C64" s="41"/>
+      <c r="A64" s="32"/>
+      <c r="B64" s="39"/>
+      <c r="C64" s="40"/>
     </row>
     <row r="65" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="33"/>
-      <c r="B65" s="40"/>
-      <c r="C65" s="41"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="39"/>
+      <c r="C65" s="40"/>
     </row>
     <row r="66" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A66" s="33"/>
-      <c r="B66" s="40"/>
-      <c r="C66" s="41"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="39"/>
+      <c r="C66" s="40"/>
     </row>
     <row r="67" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="33"/>
-      <c r="B67" s="40"/>
-      <c r="C67" s="41"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="39"/>
+      <c r="C67" s="40"/>
     </row>
     <row r="68" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A68" s="33"/>
-      <c r="B68" s="40"/>
-      <c r="C68" s="41"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="39"/>
+      <c r="C68" s="40"/>
     </row>
     <row r="69" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="33"/>
-      <c r="B69" s="40"/>
-      <c r="C69" s="41"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="39"/>
+      <c r="C69" s="40"/>
     </row>
     <row r="70" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A70" s="33"/>
-      <c r="B70" s="40"/>
-      <c r="C70" s="41"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="39"/>
+      <c r="C70" s="40"/>
     </row>
     <row r="71" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A71" s="33"/>
-      <c r="B71" s="40"/>
-      <c r="C71" s="41"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="39"/>
+      <c r="C71" s="40"/>
     </row>
     <row r="72" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="33"/>
-      <c r="B72" s="40"/>
-      <c r="C72" s="41"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="39"/>
+      <c r="C72" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -11970,8 +11978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6654933-36B7-4F8C-9E09-5D9C2AFB682E}">
   <dimension ref="C15:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Y30" sqref="T29:Y30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -12737,12 +12745,12 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -12752,12 +12760,12 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -12772,12 +12780,12 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -12792,12 +12800,12 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -12836,7 +12844,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12856,12 +12864,12 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12871,12 +12879,12 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12886,12 +12894,12 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13310,7 +13318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1680F7F-9CD9-4F15-8F66-15E5824D82C3}">
   <dimension ref="B2:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
@@ -13333,7 +13341,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -13378,7 +13386,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13398,12 +13406,12 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13418,12 +13426,12 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13438,12 +13446,12 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13500,7 +13508,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -13540,17 +13548,17 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13570,12 +13578,12 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13585,12 +13593,12 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13600,12 +13608,12 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -13617,10 +13625,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D5253-0275-47DD-89E6-B69C361856DE}">
-  <dimension ref="C15:L36"/>
+  <dimension ref="C15:K36"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G35" sqref="C34:G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -13628,19 +13636,18 @@
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.08203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.58203125" style="1" customWidth="1"/>
-    <col min="7" max="17" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="26" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="5" width="14.58203125" style="1" customWidth="1"/>
+    <col min="6" max="16" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="4.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
         <v>102</v>
       </c>
@@ -13653,124 +13660,91 @@
       <c r="F15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="9">
         <v>1</v>
       </c>
       <c r="D16" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G16" s="10">
+      <c r="F16" s="10">
         <v>1</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="4">
         <v>2</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="G17" s="5">
+        <v>108</v>
+      </c>
+      <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="H17" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="9">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>116</v>
-      </c>
-      <c r="G18" s="10">
+        <v>110</v>
+      </c>
+      <c r="E18" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F18" s="10">
         <v>0</v>
       </c>
-      <c r="H18" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="9">
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="10">
+        <v>113</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" s="10">
         <v>0</v>
       </c>
-      <c r="H19" s="10" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="34" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="34" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="2" t="s">
         <v>102</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="46" t="s">
+        <v>190</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>107</v>
+      <c r="I34" s="23" t="s">
+        <v>105</v>
       </c>
       <c r="J34" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="L34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="3:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="K34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" spans="3:11" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -13786,22 +13760,19 @@
       <c r="G35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="H35" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="J35" s="26">
+      <c r="I35" s="25">
         <v>0</v>
       </c>
-      <c r="K35" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="3:12" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="J36" s="28">
+      <c r="J35" s="26" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="36" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="J36" s="27">
         <v>1</v>
       </c>
-      <c r="K36" s="29" t="s">
-        <v>121</v>
+      <c r="K36" s="28" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAA73AE-588E-4BD2-AE3E-34677E728400}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6939B61-7EDD-42DA-9FE2-455A673EF7D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="8" activeTab="9" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -1267,6 +1267,102 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
+    <t>所属部</t>
+    <rPh sb="0" eb="2">
+      <t>ショゾク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限レベルコード</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>権限レベル</t>
+    <rPh sb="0" eb="2">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>業務部</t>
+    <rPh sb="0" eb="2">
+      <t>ギョウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>工務部</t>
+    <rPh sb="0" eb="2">
+      <t>コウム</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+  </si>
+  <si>
+    <t>←権限レベルテーブル</t>
+    <rPh sb="1" eb="3">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>管理者マスタ　変更画面に関するメモ</t>
+    <rPh sb="0" eb="3">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キャンセルが選択された　→　入力された状態が維持したまま、管理者マスタ変更画面に戻る</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="29" eb="32">
+      <t>カンリシャ</t>
+    </rPh>
+    <rPh sb="35" eb="37">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
     <t>社員番号</t>
     <rPh sb="0" eb="2">
       <t>シャイン</t>
@@ -1274,169 +1370,13 @@
     <rPh sb="2" eb="4">
       <t>バンゴウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>氏名</t>
     <rPh sb="0" eb="2">
       <t>シメイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>所属部</t>
-    <rPh sb="0" eb="2">
-      <t>ショゾク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>権限レベルコード</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>権限レベル</t>
-    <rPh sb="0" eb="2">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>二村　健斗</t>
-    <rPh sb="0" eb="2">
-      <t>フタムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケント</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>業務部</t>
-    <rPh sb="0" eb="2">
-      <t>ギョウム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>本田　政雄（選択中）</t>
-    <rPh sb="0" eb="2">
-      <t>ホンダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサオ</t>
-    </rPh>
-    <rPh sb="6" eb="9">
-      <t>センタクチュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山田　正雄</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマダ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>マサオ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>工務部</t>
-    <rPh sb="0" eb="2">
-      <t>コウム</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザー</t>
-  </si>
-  <si>
-    <t>二村　健二</t>
-    <rPh sb="0" eb="2">
-      <t>フタムラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンジ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←権限レベルテーブル</t>
-    <rPh sb="1" eb="3">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>管理者マスタ　変更画面に関するメモ</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>カン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>キャンセルが選択された　→　入力された状態が維持したまま、管理者マスタ変更画面に戻る</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <rPh sb="29" eb="32">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>ヘンコウ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="40" eb="41">
-      <t>モド</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>社員番号</t>
-    <rPh sb="0" eb="2">
-      <t>シャイン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>バンゴウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>氏名</t>
-    <rPh sb="0" eb="2">
-      <t>シメイ</t>
-    </rPh>
     <phoneticPr fontId="3"/>
   </si>
   <si>
@@ -2617,6 +2557,58 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kento_futamura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>masao_honda(選択中）</t>
+    <rPh sb="12" eb="15">
+      <t>センタクチュウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>maao_yamada</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>kenji_futamura</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタの項目</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マスタの項目から社員番号を削除し、氏名をログインIDに変更した</t>
+    <rPh sb="4" eb="6">
+      <t>コウモク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>シメイ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヘンコウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -5516,7 +5508,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3131"/>
+                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3140"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -8116,8 +8108,8 @@
       <xdr:rowOff>156789</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>900547</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>877454</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>36286</xdr:rowOff>
     </xdr:to>
@@ -8135,7 +8127,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1214696" y="2096425"/>
-          <a:ext cx="5504760" cy="1980770"/>
+          <a:ext cx="4638849" cy="1980770"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8321,8 +8313,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10244281" y="9792144"/>
-          <a:ext cx="4328005" cy="1970617"/>
+          <a:off x="10474613" y="9598180"/>
+          <a:ext cx="4322809" cy="1929054"/>
           <a:chOff x="10057798" y="6466299"/>
           <a:chExt cx="4336947" cy="2011049"/>
         </a:xfrm>
@@ -8878,8 +8870,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3625850" y="9909671"/>
-          <a:ext cx="4011081" cy="1970617"/>
+          <a:off x="3867727" y="9715707"/>
+          <a:ext cx="4004731" cy="1929054"/>
           <a:chOff x="3111158" y="7154031"/>
           <a:chExt cx="4330349" cy="2011049"/>
         </a:xfrm>
@@ -9307,16 +9299,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>258777</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>281869</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>73032</xdr:rowOff>
+      <xdr:rowOff>73033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>607436</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>630528</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>148525</xdr:rowOff>
+      <xdr:rowOff>148526</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9331,7 +9323,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="10800000">
-          <a:off x="6077686" y="3629032"/>
+          <a:off x="5257960" y="3629033"/>
           <a:ext cx="348659" cy="237129"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -9367,14 +9359,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>762712</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>785803</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>15678</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>409935</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>433026</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>9071</xdr:rowOff>
     </xdr:to>
@@ -9391,7 +9383,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7678439" y="1470405"/>
+          <a:off x="6858712" y="1470405"/>
           <a:ext cx="744041" cy="2579575"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9438,16 +9430,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>262226</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>285318</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>100002</xdr:rowOff>
+      <xdr:rowOff>100003</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>610885</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>633977</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>10865</xdr:rowOff>
+      <xdr:rowOff>10866</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9462,7 +9454,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6081135" y="2201275"/>
+          <a:off x="5261409" y="2201276"/>
           <a:ext cx="348659" cy="234135"/>
         </a:xfrm>
         <a:prstGeom prst="upArrow">
@@ -9498,16 +9490,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>368455</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>368456</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>54882</xdr:rowOff>
+      <xdr:rowOff>54884</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>533086</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533087</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>141114</xdr:rowOff>
+      <xdr:rowOff>141116</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9522,7 +9514,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="5903291" y="2763500"/>
+          <a:off x="5060474" y="2763502"/>
           <a:ext cx="732778" cy="164631"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9558,13 +9550,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>998041</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>54876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>622457</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -9582,7 +9574,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6816950" y="1509603"/>
+          <a:off x="5974132" y="1509603"/>
           <a:ext cx="721234" cy="2369670"/>
         </a:xfrm>
         <a:prstGeom prst="leftBrace">
@@ -9946,7 +9938,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>108858</xdr:colOff>
+      <xdr:colOff>90715</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
@@ -9964,7 +9956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1899558" y="7603671"/>
-          <a:ext cx="1202871" cy="630465"/>
+          <a:ext cx="1184728" cy="630465"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10285,7 +10277,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6263"/>
+                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6272"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10322,67 +10314,6 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>158750</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>107950</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{590FCA9F-2A20-41BB-AAC8-0BB8F3F7AB33}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="819150" y="7315200"/>
-          <a:ext cx="5619750" cy="336550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10724,8 +10655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDF4AE-EC30-46E5-9D4F-2D435C180172}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -10740,19 +10671,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D1" s="30" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10765,7 +10696,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10776,11 +10707,11 @@
         <v>43705</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="36" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10791,13 +10722,13 @@
         <v>43726</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D4" s="37" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10805,26 +10736,34 @@
         <v>4</v>
       </c>
       <c r="B5" s="33">
-        <v>43722</v>
+        <v>43732</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D5" s="37" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="38"/>
+      <c r="B6" s="33">
+        <v>43732</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="38" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="32">
@@ -11319,15 +11258,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67E58644-8616-4F9B-B78E-0E92FDEEF4E9}">
   <dimension ref="B2:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView topLeftCell="A20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11352,17 +11291,17 @@
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11372,17 +11311,17 @@
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11392,17 +11331,17 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11412,27 +11351,27 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -11442,12 +11381,12 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -11471,7 +11410,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11486,12 +11425,12 @@
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11501,12 +11440,12 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11516,12 +11455,12 @@
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -11549,13 +11488,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="29" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11563,10 +11502,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C2" s="36" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11574,10 +11513,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11585,10 +11524,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C4" s="36" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11596,10 +11535,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11607,10 +11546,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C6" s="36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11618,10 +11557,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -12745,12 +12684,12 @@
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="C39" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -12760,12 +12699,12 @@
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D43" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E44" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.55000000000000004">
@@ -12780,12 +12719,12 @@
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="D47" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.55000000000000004">
       <c r="E48" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -12800,12 +12739,12 @@
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D51" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E52" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -12844,7 +12783,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12864,12 +12803,12 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12879,12 +12818,12 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -12894,12 +12833,12 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13341,7 +13280,7 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -13386,7 +13325,7 @@
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13406,12 +13345,12 @@
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13426,12 +13365,12 @@
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13446,12 +13385,12 @@
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
@@ -13508,7 +13447,7 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
@@ -13548,17 +13487,17 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13578,12 +13517,12 @@
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13593,12 +13532,12 @@
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13608,12 +13547,12 @@
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -13625,17 +13564,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{830D5253-0275-47DD-89E6-B69C361856DE}">
-  <dimension ref="C15:K36"/>
+  <dimension ref="C15:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G35" sqref="C34:G35"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="2" width="8.6640625" style="1"/>
     <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.58203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.9140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.58203125" style="1" customWidth="1"/>
     <col min="6" max="16" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="18" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -13647,104 +13586,86 @@
     <col min="26" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="15" spans="3:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E15" s="2" t="s">
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="E19" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="34" spans="3:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="C34" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="D34" s="46" t="s">
+        <v>184</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="9">
-        <v>1</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="J34" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="4">
-        <v>2</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="9">
-        <v>3</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="F18" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="9">
-        <v>4</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F19" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="C34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="E34" s="46" t="s">
-        <v>190</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I34" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="J34" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" s="7" t="s">
         <v>35</v>
       </c>
@@ -13757,22 +13678,19 @@
       <c r="F35" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G35" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" s="25">
+      <c r="H35" s="25">
         <v>0</v>
       </c>
-      <c r="J35" s="26" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="3:11" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="J36" s="27">
+      <c r="I35" s="26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="H36" s="27">
         <v>1</v>
       </c>
-      <c r="K36" s="28" t="s">
-        <v>115</v>
+      <c r="I36" s="28" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
+++ b/関連帳票/機能設計書/機能設計_マスタ画面.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\二村　健斗\source\repos\PCB project\PCB project\関連帳票\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6939B61-7EDD-42DA-9FE2-455A673EF7D8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{710554A9-3D1F-46EF-8327-A9034EA4842F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{A9D261CB-998E-4BC5-AC36-DB09ADE106CC}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="16" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="204">
   <si>
     <t>加重平均</t>
     <rPh sb="0" eb="2">
@@ -400,19 +400,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>・時間帯必要数の計算式</t>
-    <rPh sb="1" eb="4">
-      <t>ジカンタイ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ヒツヨウスウ</t>
-    </rPh>
-    <rPh sb="8" eb="11">
-      <t>ケイサンシキ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>Ｎ＝日当必要台数</t>
     <rPh sb="2" eb="4">
       <t>ヒア</t>
@@ -2609,6 +2596,172 @@
     </rPh>
     <rPh sb="27" eb="29">
       <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日当必要台数→</t>
+    <rPh sb="0" eb="2">
+      <t>ヒア</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ダイスウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>・時間帯必要数の自動計算</t>
+    <rPh sb="1" eb="4">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>時間帯必要数の自動計算は「日当必要台数」列にある矢印ボタン（→）の押下をトリガーにする</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒア</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ダイスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ボタンが押されたら時間帯必要数１～１１の値をクリアする</t>
+    <rPh sb="4" eb="5">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>上記の計算式通りに計算を行う</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウキ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ドオ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯマスタ変更画面　画面処理</t>
+  </si>
+  <si>
+    <t>時間帯必要数の自動計算</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ケイサン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>自動計算前にデータをクリアする</t>
+    <rPh sb="0" eb="2">
+      <t>ジドウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイサン</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>マエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ラインＮＯマスタ変更画面</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日当り必要数（ヘッダー）</t>
+    <rPh sb="0" eb="2">
+      <t>ヒアタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>日当り必要数の列に矢印（→）を追加し押下できるようにした</t>
+    <rPh sb="0" eb="2">
+      <t>ヒアタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ヒツヨウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>レツ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヤジルシ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>オウカ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2946,7 +3099,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3096,6 +3249,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5508,7 +5664,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3140"/>
+                  <a14:cameraTool cellRange="[1]ラインＮＯマスタ変更画面!$C$16:$Z$17" spid="_x0000_s3152"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10277,7 +10433,7 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6272"/>
+                  <a14:cameraTool cellRange="[1]管理者マスタ変更画面!$J$34:$K$36" spid="_x0000_s6284"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
@@ -10655,8 +10811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CEDF4AE-EC30-46E5-9D4F-2D435C180172}">
   <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="12" x14ac:dyDescent="0.55000000000000004"/>
@@ -10671,19 +10827,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="C1" s="30" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="D1" s="30" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="E1" s="30" t="s">
         <v>121</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10696,7 +10852,7 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="35" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10707,11 +10863,11 @@
         <v>43705</v>
       </c>
       <c r="C3" s="34" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D3" s="34"/>
       <c r="E3" s="36" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10722,13 +10878,13 @@
         <v>43726</v>
       </c>
       <c r="C4" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" s="37" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>181</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10739,13 +10895,13 @@
         <v>43732</v>
       </c>
       <c r="C5" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D5" s="37" t="s">
+        <v>184</v>
+      </c>
+      <c r="E5" s="38" t="s">
         <v>185</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -10756,32 +10912,48 @@
         <v>43732</v>
       </c>
       <c r="C6" s="37" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D6" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>192</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="32">
         <v>6</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="36"/>
+      <c r="B7" s="33">
+        <v>43752</v>
+      </c>
+      <c r="C7" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="8" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="37"/>
-      <c r="D8" s="37"/>
-      <c r="E8" s="36"/>
+      <c r="B8" s="33">
+        <v>43752</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D8" s="37" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="9" spans="1:5" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="32">
@@ -11266,7 +11438,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -11281,112 +11453,112 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C42" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -11410,57 +11582,57 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -11488,13 +11660,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B1" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11502,10 +11674,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="37" t="s">
+        <v>170</v>
+      </c>
+      <c r="C2" s="36" t="s">
         <v>171</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11513,10 +11685,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11524,10 +11696,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>174</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11535,10 +11707,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C5" s="36" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11546,10 +11718,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="C6" s="36" t="s">
         <v>177</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11557,10 +11729,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="12" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -11917,8 +12089,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6654933-36B7-4F8C-9E09-5D9C2AFB682E}">
   <dimension ref="C15:Z35"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="Y30" sqref="T29:Y30"/>
+    <sheetView topLeftCell="E1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.55000000000000004"/>
@@ -11930,7 +12102,7 @@
     <col min="7" max="17" width="14.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="18" max="19" width="8.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="12.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" style="1" customWidth="1"/>
     <col min="22" max="22" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.75" style="1" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.58203125" style="1" bestFit="1" customWidth="1"/>
@@ -12002,7 +12174,7 @@
         <v>18</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="V16" s="2" t="s">
         <v>20</v>
@@ -12479,10 +12651,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCBC032D-9FCA-461C-98DB-A8DC57BEDE1E}">
-  <dimension ref="B2:Q53"/>
+  <dimension ref="B2:Q58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R39" sqref="R39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.58203125" defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -12509,254 +12681,324 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" s="13" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D17" s="13" t="s">
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="15"/>
+    </row>
+    <row r="19" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" s="16"/>
+      <c r="N19" s="17"/>
+    </row>
+    <row r="20" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" s="16"/>
+      <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="15"/>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D18" s="16"/>
-      <c r="N18" s="17"/>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D19" s="16"/>
-      <c r="E19" t="s">
+      <c r="N20" s="17"/>
+    </row>
+    <row r="21" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" s="16"/>
+      <c r="N21" s="17"/>
+    </row>
+    <row r="22" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" s="16"/>
+      <c r="E22" t="s">
         <v>42</v>
       </c>
-      <c r="N19" s="17"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D20" s="16"/>
-      <c r="N20" s="17"/>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D21" s="16"/>
-      <c r="E21" t="s">
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" s="16"/>
+      <c r="N23" s="17"/>
+    </row>
+    <row r="24" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" s="16"/>
+      <c r="F24" t="s">
         <v>43</v>
       </c>
-      <c r="N21" s="17"/>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D22" s="16"/>
-      <c r="N22" s="17"/>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D23" s="16"/>
-      <c r="F23" t="s">
+      <c r="N24" s="17"/>
+    </row>
+    <row r="25" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" s="18"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="N23" s="17"/>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D24" s="18"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="20"/>
+    </row>
+    <row r="27" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D27" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="20"/>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D26" s="13" t="s">
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="15"/>
+    </row>
+    <row r="28" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D28" s="16"/>
+      <c r="E28" t="s">
         <v>46</v>
       </c>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="15"/>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D27" s="16"/>
-      <c r="E27" t="s">
+      <c r="Q28" s="17"/>
+    </row>
+    <row r="29" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D29" s="16"/>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>6</v>
+      </c>
+      <c r="N29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q29" s="17"/>
+    </row>
+    <row r="30" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D30" s="16"/>
+      <c r="F30" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="17"/>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" s="16"/>
-      <c r="F28" t="s">
-        <v>5</v>
-      </c>
-      <c r="J28" t="s">
-        <v>6</v>
-      </c>
-      <c r="N28" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q28" s="17"/>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D29" s="16"/>
-      <c r="F29" s="48" t="s">
+      <c r="G30" s="48"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="G29" s="48"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="48"/>
-      <c r="J29" s="48" t="s">
+      <c r="K30" s="48"/>
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48" t="s">
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
+    </row>
+    <row r="31" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D31" s="18"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="O29" s="48"/>
-      <c r="P29" s="48"/>
-      <c r="Q29" s="49"/>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19" t="s">
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="O30" s="19"/>
-      <c r="P30" s="19"/>
-      <c r="Q30" s="20"/>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.55000000000000004">
-      <c r="C32" t="s">
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="20"/>
+    </row>
+    <row r="32" spans="4:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D32" s="50"/>
+      <c r="E32" s="50"/>
+      <c r="F32" s="50"/>
+      <c r="G32" s="50"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="50"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="50"/>
+      <c r="L32" s="50"/>
+      <c r="M32" s="50"/>
+      <c r="N32" s="50"/>
+      <c r="O32" s="50"/>
+      <c r="P32" s="50"/>
+      <c r="Q32" s="50"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D33" s="50" t="s">
+        <v>195</v>
+      </c>
+      <c r="E33" s="50"/>
+      <c r="F33" s="50"/>
+      <c r="G33" s="50"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="50"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="50"/>
+      <c r="L33" s="50"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="50"/>
+      <c r="P33" s="50"/>
+      <c r="Q33" s="50"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D34" s="50"/>
+      <c r="E34" s="50" t="s">
+        <v>196</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="50"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+      <c r="M34" s="50"/>
+      <c r="N34" s="50"/>
+      <c r="O34" s="50"/>
+      <c r="P34" s="50"/>
+      <c r="Q34" s="50"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D35" s="50"/>
+      <c r="E35" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
+      <c r="M35" s="50"/>
+      <c r="N35" s="50"/>
+      <c r="O35" s="50"/>
+      <c r="P35" s="50"/>
+      <c r="Q35" s="50"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D40" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D35" t="s">
+      <c r="I40" t="s">
         <v>65</v>
       </c>
-      <c r="I35" t="s">
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D42" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D40" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D43" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E45" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="C46" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D47" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="E48" t="s">
-        <v>133</v>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="C47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="3:17" x14ac:dyDescent="0.55000000000000004">
+      <c r="D48" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E49" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="50" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C51" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C50" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D51" t="s">
-        <v>164</v>
-      </c>
-    </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="E52" t="s">
-        <v>134</v>
+      <c r="D52" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E53" t="s">
-        <v>55</v>
+        <v>132</v>
+      </c>
+    </row>
+    <row r="54" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D56" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="57" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E57" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="E58" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="F30:I30"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="N30:Q30"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12783,87 +13025,87 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -12900,13 +13142,13 @@
   <sheetData>
     <row r="14" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -12921,13 +13163,13 @@
     </row>
     <row r="15" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" s="7">
         <v>1</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="21"/>
@@ -12940,13 +13182,13 @@
     </row>
     <row r="16" spans="3:15" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -12959,13 +13201,13 @@
     </row>
     <row r="17" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D17" s="7">
         <v>1</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -12978,13 +13220,13 @@
     </row>
     <row r="18" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" s="7">
         <v>1</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -12997,13 +13239,13 @@
     </row>
     <row r="19" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="7">
         <v>1</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F19" s="21"/>
       <c r="G19" s="21"/>
@@ -13016,13 +13258,13 @@
     </row>
     <row r="20" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D20" s="7">
         <v>1</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20" s="21"/>
       <c r="G20" s="21"/>
@@ -13035,13 +13277,13 @@
     </row>
     <row r="21" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D21" s="7">
         <v>1</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F21" s="21"/>
       <c r="G21" s="21"/>
@@ -13054,13 +13296,13 @@
     </row>
     <row r="22" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="7">
         <v>1</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F22" s="21"/>
       <c r="G22" s="21"/>
@@ -13073,13 +13315,13 @@
     </row>
     <row r="23" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D23" s="7">
         <v>1</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F23" s="21"/>
       <c r="G23" s="21"/>
@@ -13092,13 +13334,13 @@
     </row>
     <row r="24" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D24" s="7">
         <v>1</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F24" s="21"/>
       <c r="G24" s="21"/>
@@ -13111,13 +13353,13 @@
     </row>
     <row r="25" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
         <v>1</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="21"/>
@@ -13130,13 +13372,13 @@
     </row>
     <row r="26" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D26" s="7">
         <v>1</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F26" s="21"/>
       <c r="G26" s="21"/>
@@ -13149,13 +13391,13 @@
     </row>
     <row r="27" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C27" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D27" s="7">
         <v>1</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F27" s="21"/>
       <c r="G27" s="21"/>
@@ -13168,13 +13410,13 @@
     </row>
     <row r="28" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="7">
         <v>1</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F28" s="21"/>
       <c r="G28" s="21"/>
@@ -13187,13 +13429,13 @@
     </row>
     <row r="29" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D29" s="7">
         <v>1</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="21"/>
       <c r="G29" s="21"/>
@@ -13206,13 +13448,13 @@
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D30" s="7">
         <v>1</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F30" s="21"/>
       <c r="G30" s="21"/>
@@ -13225,13 +13467,13 @@
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C43" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.55000000000000004">
@@ -13239,10 +13481,10 @@
         <v>35</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -13265,7 +13507,7 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.55000000000000004">
@@ -13280,147 +13522,147 @@
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F24" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="E31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="32" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F32" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="F33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="40" spans="3:6" x14ac:dyDescent="0.55000000000000004">
       <c r="D40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -13442,117 +13684,117 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D14" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="E18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D23" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D24" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="D30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -13588,21 +13830,21 @@
   <sheetData>
     <row r="15" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C15" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="16" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -13610,10 +13852,10 @@
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -13621,10 +13863,10 @@
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D18" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E18" s="10">
         <v>0</v>
@@ -13632,10 +13874,10 @@
     </row>
     <row r="19" spans="3:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E19" s="10">
         <v>0</v>
@@ -13644,25 +13886,25 @@
     <row r="33" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="34" spans="3:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C34" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D34" s="46" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="H34" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="H34" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="I34" s="24" t="s">
-        <v>104</v>
-      </c>
       <c r="J34" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="3:10" x14ac:dyDescent="0.55000000000000004">
@@ -13682,7 +13924,7 @@
         <v>0</v>
       </c>
       <c r="I35" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="3:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -13690,7 +13932,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
